--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H2">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I2">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J2">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N2">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O2">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P2">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q2">
-        <v>382.9102531002528</v>
+        <v>544.9658951029961</v>
       </c>
       <c r="R2">
-        <v>382.9102531002528</v>
+        <v>4904.693055926965</v>
       </c>
       <c r="S2">
-        <v>0.1361368656928096</v>
+        <v>0.1521175809348666</v>
       </c>
       <c r="T2">
-        <v>0.1361368656928096</v>
+        <v>0.1925768769022347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H3">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I3">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J3">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N3">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P3">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q3">
-        <v>84.90055823836659</v>
+        <v>130.3276705643434</v>
       </c>
       <c r="R3">
-        <v>84.90055823836659</v>
+        <v>1172.94903507909</v>
       </c>
       <c r="S3">
-        <v>0.03018486917119703</v>
+        <v>0.03637866177181102</v>
       </c>
       <c r="T3">
-        <v>0.03018486917119703</v>
+        <v>0.04605443385861994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H4">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I4">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J4">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N4">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O4">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P4">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q4">
-        <v>12.55413575806882</v>
+        <v>19.308953407022</v>
       </c>
       <c r="R4">
-        <v>12.55413575806882</v>
+        <v>173.780580663198</v>
       </c>
       <c r="S4">
-        <v>0.004463397570965658</v>
+        <v>0.005389752476354716</v>
       </c>
       <c r="T4">
-        <v>0.004463397570965658</v>
+        <v>0.006823285597848816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H5">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I5">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J5">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N5">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O5">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P5">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q5">
-        <v>8.927566175353235</v>
+        <v>13.36583589760045</v>
       </c>
       <c r="R5">
-        <v>8.927566175353235</v>
+        <v>120.292523078404</v>
       </c>
       <c r="S5">
-        <v>0.003174035867510518</v>
+        <v>0.003730836447170919</v>
       </c>
       <c r="T5">
-        <v>0.003174035867510518</v>
+        <v>0.004723141314854585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H6">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I6">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J6">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N6">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O6">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P6">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q6">
-        <v>40.50693885748554</v>
+        <v>58.45439065278034</v>
       </c>
       <c r="R6">
-        <v>40.50693885748554</v>
+        <v>350.726343916682</v>
       </c>
       <c r="S6">
-        <v>0.01440151484641642</v>
+        <v>0.01631650820909093</v>
       </c>
       <c r="T6">
-        <v>0.01440151484641642</v>
+        <v>0.01377084828523456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H7">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J7">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N7">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O7">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P7">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q7">
-        <v>311.6019369338316</v>
+        <v>343.7492829901801</v>
       </c>
       <c r="R7">
-        <v>311.6019369338316</v>
+        <v>3093.74354691162</v>
       </c>
       <c r="S7">
-        <v>0.110784474154245</v>
+        <v>0.09595152622656956</v>
       </c>
       <c r="T7">
-        <v>0.110784474154245</v>
+        <v>0.121472121375816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H8">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J8">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N8">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P8">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q8">
-        <v>69.08976236505258</v>
+        <v>82.20705866705002</v>
       </c>
       <c r="R8">
-        <v>69.08976236505258</v>
+        <v>739.86352800345</v>
       </c>
       <c r="S8">
-        <v>0.02456362456655535</v>
+        <v>0.02294664494158647</v>
       </c>
       <c r="T8">
-        <v>0.02456362456655535</v>
+        <v>0.02904985203602008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H9">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J9">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N9">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O9">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P9">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q9">
-        <v>10.21621381791602</v>
+        <v>12.17954912151</v>
       </c>
       <c r="R9">
-        <v>10.21621381791602</v>
+        <v>109.61594209359</v>
       </c>
       <c r="S9">
-        <v>0.003632191400355428</v>
+        <v>0.003399705496967521</v>
       </c>
       <c r="T9">
-        <v>0.003632191400355428</v>
+        <v>0.00430393819681957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H10">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J10">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N10">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O10">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P10">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q10">
-        <v>7.26501024671358</v>
+        <v>8.430796399646667</v>
       </c>
       <c r="R10">
-        <v>7.26501024671358</v>
+        <v>75.87716759682</v>
       </c>
       <c r="S10">
-        <v>0.002582943956726029</v>
+        <v>0.002353307546752541</v>
       </c>
       <c r="T10">
-        <v>0.002582943956726029</v>
+        <v>0.00297922577363435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H11">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J11">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.4552030574335</v>
+        <v>21.8744765</v>
       </c>
       <c r="N11">
-        <v>21.4552030574335</v>
+        <v>43.748953</v>
       </c>
       <c r="O11">
-        <v>0.07645711730102409</v>
+        <v>0.07626912299573232</v>
       </c>
       <c r="P11">
-        <v>0.07645711730102409</v>
+        <v>0.05217246470638207</v>
       </c>
       <c r="Q11">
-        <v>32.96344379670634</v>
+        <v>36.87139884363501</v>
       </c>
       <c r="R11">
-        <v>32.96344379670634</v>
+        <v>221.22839306181</v>
       </c>
       <c r="S11">
-        <v>0.01171956061398484</v>
+        <v>0.01029199817489195</v>
       </c>
       <c r="T11">
-        <v>0.01171956061398484</v>
+        <v>0.008686266914595233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H12">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I12">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J12">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>202.815059956598</v>
+        <v>203.934102</v>
       </c>
       <c r="N12">
-        <v>202.815059956598</v>
+        <v>611.802306</v>
       </c>
       <c r="O12">
-        <v>0.7227456569861413</v>
+        <v>0.7110513071461264</v>
       </c>
       <c r="P12">
-        <v>0.7227456569861413</v>
+        <v>0.7295999567593805</v>
       </c>
       <c r="Q12">
-        <v>1338.344384379388</v>
+        <v>112.33676019653</v>
       </c>
       <c r="R12">
-        <v>1338.344384379388</v>
+        <v>1011.03084176877</v>
       </c>
       <c r="S12">
-        <v>0.4758243171390867</v>
+        <v>0.03135681767374952</v>
       </c>
       <c r="T12">
-        <v>0.4758243171390867</v>
+        <v>0.03969691064038859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H13">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I13">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J13">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.9690538972188</v>
+        <v>48.770495</v>
       </c>
       <c r="N13">
-        <v>44.9690538972188</v>
+        <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1602503700166338</v>
+        <v>0.1700467154822082</v>
       </c>
       <c r="P13">
-        <v>0.1602503700166338</v>
+        <v>0.174482593613174</v>
       </c>
       <c r="Q13">
-        <v>296.7436479671484</v>
+        <v>26.86514588659167</v>
       </c>
       <c r="R13">
-        <v>296.7436479671484</v>
+        <v>241.786312979325</v>
       </c>
       <c r="S13">
-        <v>0.1055018762788814</v>
+        <v>0.007498929823779608</v>
       </c>
       <c r="T13">
-        <v>0.1055018762788814</v>
+        <v>0.009493448927450686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H14">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I14">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J14">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.6495158483243</v>
+        <v>7.225689</v>
       </c>
       <c r="N14">
-        <v>6.6495158483243</v>
+        <v>21.677067</v>
       </c>
       <c r="O14">
-        <v>0.02369601498757222</v>
+        <v>0.02519360694505809</v>
       </c>
       <c r="P14">
-        <v>0.02369601498757222</v>
+        <v>0.02585081322964185</v>
       </c>
       <c r="Q14">
-        <v>43.87909949266592</v>
+        <v>3.980258742834999</v>
       </c>
       <c r="R14">
-        <v>43.87909949266592</v>
+        <v>35.822328685515</v>
       </c>
       <c r="S14">
-        <v>0.01560042601625113</v>
+        <v>0.001111018757128798</v>
       </c>
       <c r="T14">
-        <v>0.01560042601625113</v>
+        <v>0.001406520673762737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H15">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I15">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J15">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.72864033924603</v>
+        <v>5.001688666666666</v>
       </c>
       <c r="N15">
-        <v>4.72864033924603</v>
+        <v>15.005066</v>
       </c>
       <c r="O15">
-        <v>0.01685084070862836</v>
+        <v>0.01743924743087499</v>
       </c>
       <c r="P15">
-        <v>0.01685084070862836</v>
+        <v>0.01789417169142159</v>
       </c>
       <c r="Q15">
-        <v>31.20354694140595</v>
+        <v>2.755171865885555</v>
       </c>
       <c r="R15">
-        <v>31.20354694140595</v>
+        <v>24.79654679297</v>
       </c>
       <c r="S15">
-        <v>0.01109386088439181</v>
+        <v>0.0007690574457308076</v>
       </c>
       <c r="T15">
-        <v>0.01109386088439181</v>
+        <v>0.0009736066018605904</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.652545</v>
+      </c>
+      <c r="I16">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J16">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.8744765</v>
+      </c>
+      <c r="N16">
+        <v>43.748953</v>
+      </c>
+      <c r="O16">
+        <v>0.07626912299573232</v>
+      </c>
+      <c r="P16">
+        <v>0.05217246470638207</v>
+      </c>
+      <c r="Q16">
+        <v>12.04951892256416</v>
+      </c>
+      <c r="R16">
+        <v>72.29711353538499</v>
+      </c>
+      <c r="S16">
+        <v>0.003363409869131247</v>
+      </c>
+      <c r="T16">
+        <v>0.002838659254500359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.481638</v>
+      </c>
+      <c r="H17">
+        <v>1.444914</v>
+      </c>
+      <c r="I17">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J17">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>203.934102</v>
+      </c>
+      <c r="N17">
+        <v>611.802306</v>
+      </c>
+      <c r="O17">
+        <v>0.7110513071461264</v>
+      </c>
+      <c r="P17">
+        <v>0.7295999567593805</v>
+      </c>
+      <c r="Q17">
+        <v>98.222413019076</v>
+      </c>
+      <c r="R17">
+        <v>884.0017171716839</v>
+      </c>
+      <c r="S17">
+        <v>0.0274170475552848</v>
+      </c>
+      <c r="T17">
+        <v>0.03470926476498155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.481638</v>
+      </c>
+      <c r="H18">
+        <v>1.444914</v>
+      </c>
+      <c r="I18">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J18">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>48.770495</v>
+      </c>
+      <c r="N18">
+        <v>146.311485</v>
+      </c>
+      <c r="O18">
+        <v>0.1700467154822082</v>
+      </c>
+      <c r="P18">
+        <v>0.174482593613174</v>
+      </c>
+      <c r="Q18">
+        <v>23.48972367081</v>
+      </c>
+      <c r="R18">
+        <v>211.40751303729</v>
+      </c>
+      <c r="S18">
+        <v>0.006556740474478268</v>
+      </c>
+      <c r="T18">
+        <v>0.008300661866126779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.481638</v>
+      </c>
+      <c r="H19">
+        <v>1.444914</v>
+      </c>
+      <c r="I19">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J19">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.225689</v>
+      </c>
+      <c r="N19">
+        <v>21.677067</v>
+      </c>
+      <c r="O19">
+        <v>0.02519360694505809</v>
+      </c>
+      <c r="P19">
+        <v>0.02585081322964185</v>
+      </c>
+      <c r="Q19">
+        <v>3.480166398581999</v>
+      </c>
+      <c r="R19">
+        <v>31.321497587238</v>
+      </c>
+      <c r="S19">
+        <v>0.0009714268334223877</v>
+      </c>
+      <c r="T19">
+        <v>0.001229800951144575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.481638</v>
+      </c>
+      <c r="H20">
+        <v>1.444914</v>
+      </c>
+      <c r="I20">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J20">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.001688666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.005066</v>
+      </c>
+      <c r="O20">
+        <v>0.01743924743087499</v>
+      </c>
+      <c r="P20">
+        <v>0.01789417169142159</v>
+      </c>
+      <c r="Q20">
+        <v>2.409003326036</v>
+      </c>
+      <c r="R20">
+        <v>21.68102993432399</v>
+      </c>
+      <c r="S20">
+        <v>0.0006724306267851612</v>
+      </c>
+      <c r="T20">
+        <v>0.0008512795775732539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.481638</v>
+      </c>
+      <c r="H21">
+        <v>1.444914</v>
+      </c>
+      <c r="I21">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J21">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>21.8744765</v>
+      </c>
+      <c r="N21">
+        <v>43.748953</v>
+      </c>
+      <c r="O21">
+        <v>0.07626912299573232</v>
+      </c>
+      <c r="P21">
+        <v>0.05217246470638207</v>
+      </c>
+      <c r="Q21">
+        <v>10.535579112507</v>
+      </c>
+      <c r="R21">
+        <v>63.21347467504199</v>
+      </c>
+      <c r="S21">
+        <v>0.00294082037563026</v>
+      </c>
+      <c r="T21">
+        <v>0.002482001094104627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.100768</v>
+      </c>
+      <c r="H22">
+        <v>14.201536</v>
+      </c>
+      <c r="I22">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J22">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>203.934102</v>
+      </c>
+      <c r="N22">
+        <v>611.802306</v>
+      </c>
+      <c r="O22">
+        <v>0.7110513071461264</v>
+      </c>
+      <c r="P22">
+        <v>0.7295999567593805</v>
+      </c>
+      <c r="Q22">
+        <v>1448.088745590336</v>
+      </c>
+      <c r="R22">
+        <v>8688.532473542016</v>
+      </c>
+      <c r="S22">
+        <v>0.4042083347556559</v>
+      </c>
+      <c r="T22">
+        <v>0.3411447830759596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.100768</v>
+      </c>
+      <c r="H23">
+        <v>14.201536</v>
+      </c>
+      <c r="I23">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J23">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>48.770495</v>
+      </c>
+      <c r="N23">
+        <v>146.311485</v>
+      </c>
+      <c r="O23">
+        <v>0.1700467154822082</v>
+      </c>
+      <c r="P23">
+        <v>0.174482593613174</v>
+      </c>
+      <c r="Q23">
+        <v>346.30797024016</v>
+      </c>
+      <c r="R23">
+        <v>2077.84782144096</v>
+      </c>
+      <c r="S23">
+        <v>0.09666573847055281</v>
+      </c>
+      <c r="T23">
+        <v>0.08158419692495654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="H16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="I16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="J16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>21.4552030574335</v>
-      </c>
-      <c r="N16">
-        <v>21.4552030574335</v>
-      </c>
-      <c r="O16">
-        <v>0.07645711730102409</v>
-      </c>
-      <c r="P16">
-        <v>0.07645711730102409</v>
-      </c>
-      <c r="Q16">
-        <v>141.579479027743</v>
-      </c>
-      <c r="R16">
-        <v>141.579479027743</v>
-      </c>
-      <c r="S16">
-        <v>0.05033604184062282</v>
-      </c>
-      <c r="T16">
-        <v>0.05033604184062282</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.100768</v>
+      </c>
+      <c r="H24">
+        <v>14.201536</v>
+      </c>
+      <c r="I24">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J24">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.225689</v>
+      </c>
+      <c r="N24">
+        <v>21.677067</v>
+      </c>
+      <c r="O24">
+        <v>0.02519360694505809</v>
+      </c>
+      <c r="P24">
+        <v>0.02585081322964185</v>
+      </c>
+      <c r="Q24">
+        <v>51.307941229152</v>
+      </c>
+      <c r="R24">
+        <v>307.847647374912</v>
+      </c>
+      <c r="S24">
+        <v>0.01432170338118467</v>
+      </c>
+      <c r="T24">
+        <v>0.01208726781006615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.100768</v>
+      </c>
+      <c r="H25">
+        <v>14.201536</v>
+      </c>
+      <c r="I25">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J25">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.001688666666666</v>
+      </c>
+      <c r="N25">
+        <v>15.005066</v>
+      </c>
+      <c r="O25">
+        <v>0.01743924743087499</v>
+      </c>
+      <c r="P25">
+        <v>0.01789417169142159</v>
+      </c>
+      <c r="Q25">
+        <v>35.51583083022933</v>
+      </c>
+      <c r="R25">
+        <v>213.094984981376</v>
+      </c>
+      <c r="S25">
+        <v>0.009913615364435566</v>
+      </c>
+      <c r="T25">
+        <v>0.00836691842349881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.100768</v>
+      </c>
+      <c r="H26">
+        <v>14.201536</v>
+      </c>
+      <c r="I26">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J26">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>21.8744765</v>
+      </c>
+      <c r="N26">
+        <v>43.748953</v>
+      </c>
+      <c r="O26">
+        <v>0.07626912299573232</v>
+      </c>
+      <c r="P26">
+        <v>0.05217246470638207</v>
+      </c>
+      <c r="Q26">
+        <v>155.325582747952</v>
+      </c>
+      <c r="R26">
+        <v>621.302330991808</v>
+      </c>
+      <c r="S26">
+        <v>0.04335638636698793</v>
+      </c>
+      <c r="T26">
+        <v>0.02439468915794729</v>
       </c>
     </row>
   </sheetData>
